--- a/data/Institutions_Final.xlsx
+++ b/data/Institutions_Final.xlsx
@@ -22746,10 +22746,10 @@
   <dimension ref="A1:P433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40143,11 +40143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C434" sqref="C434"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40164,7 +40163,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -40179,7 +40178,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -40194,7 +40193,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>234</v>
       </c>
@@ -40209,7 +40208,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -40224,7 +40223,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -40239,7 +40238,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -40254,7 +40253,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -40269,7 +40268,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -40284,7 +40283,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -40299,7 +40298,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -40314,7 +40313,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -40329,7 +40328,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -40344,7 +40343,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -40359,7 +40358,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -40374,7 +40373,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>639</v>
       </c>
@@ -40389,7 +40388,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -40404,7 +40403,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>640</v>
       </c>
@@ -40419,7 +40418,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>641</v>
       </c>
@@ -40434,7 +40433,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -40449,7 +40448,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>642</v>
       </c>
@@ -40464,7 +40463,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -40479,7 +40478,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -40494,7 +40493,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -40509,7 +40508,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -40524,7 +40523,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -40539,7 +40538,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -40554,7 +40553,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -40569,7 +40568,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -40584,7 +40583,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>203</v>
       </c>
@@ -40599,7 +40598,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>287</v>
       </c>
@@ -40614,7 +40613,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -40629,7 +40628,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -40644,7 +40643,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -40659,7 +40658,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -40674,7 +40673,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -40689,7 +40688,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -40704,7 +40703,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -40719,7 +40718,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -40734,7 +40733,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -40749,7 +40748,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -40764,7 +40763,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -40779,7 +40778,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -40794,7 +40793,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -40809,7 +40808,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -40824,7 +40823,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -40839,7 +40838,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -40854,7 +40853,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -40869,7 +40868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -40884,7 +40883,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -40899,7 +40898,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>220</v>
       </c>
@@ -40914,7 +40913,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -40929,7 +40928,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -40944,7 +40943,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -40959,7 +40958,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -40974,7 +40973,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -40989,7 +40988,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>288</v>
       </c>
@@ -41004,7 +41003,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>27</v>
       </c>
@@ -41019,7 +41018,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -41034,7 +41033,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>289</v>
       </c>
@@ -41049,7 +41048,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>243</v>
       </c>
@@ -41064,7 +41063,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -41079,7 +41078,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -41094,7 +41093,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -41109,7 +41108,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>643</v>
       </c>
@@ -41124,7 +41123,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -41139,7 +41138,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -41154,7 +41153,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>160</v>
       </c>
@@ -41169,7 +41168,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -41184,7 +41183,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -41199,7 +41198,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>129</v>
       </c>
@@ -41214,7 +41213,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -41229,7 +41228,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>32</v>
       </c>
@@ -41244,7 +41243,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -41259,7 +41258,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -41274,7 +41273,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>34</v>
       </c>
@@ -41289,7 +41288,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -41304,7 +41303,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>37</v>
       </c>
@@ -41319,7 +41318,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -41334,7 +41333,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>48</v>
       </c>
@@ -41349,7 +41348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -41364,7 +41363,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -41379,7 +41378,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>41</v>
       </c>
@@ -41394,7 +41393,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>174</v>
       </c>
@@ -41409,7 +41408,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>210</v>
       </c>
@@ -41424,7 +41423,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -41439,7 +41438,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>115</v>
       </c>
@@ -41454,7 +41453,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -41469,7 +41468,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>42</v>
       </c>
@@ -41484,7 +41483,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>43</v>
       </c>
@@ -41499,7 +41498,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -41514,7 +41513,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -41529,7 +41528,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -41544,7 +41543,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -41559,7 +41558,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>209</v>
       </c>
@@ -41574,7 +41573,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -41589,7 +41588,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>211</v>
       </c>
@@ -41604,7 +41603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>80</v>
       </c>
@@ -41619,7 +41618,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -41634,7 +41633,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -41649,7 +41648,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>49</v>
       </c>
@@ -41664,7 +41663,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -41679,7 +41678,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>52</v>
       </c>
@@ -41694,7 +41693,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>53</v>
       </c>
@@ -41709,7 +41708,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -41724,7 +41723,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -41739,7 +41738,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>90</v>
       </c>
@@ -41754,7 +41753,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -41769,7 +41768,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>253</v>
       </c>
@@ -41784,7 +41783,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -41799,7 +41798,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -41814,7 +41813,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>257</v>
       </c>
@@ -41829,7 +41828,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>69</v>
       </c>
@@ -41844,7 +41843,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>259</v>
       </c>
@@ -41859,7 +41858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>102</v>
       </c>
@@ -41874,7 +41873,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -41889,7 +41888,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -41904,7 +41903,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>56</v>
       </c>
@@ -41919,7 +41918,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>99</v>
       </c>
@@ -41934,7 +41933,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>644</v>
       </c>
@@ -41949,7 +41948,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>223</v>
       </c>
@@ -41964,7 +41963,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>67</v>
       </c>
@@ -41979,7 +41978,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -41994,7 +41993,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>645</v>
       </c>
@@ -42009,7 +42008,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -42024,7 +42023,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>293</v>
       </c>
@@ -42039,7 +42038,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>58</v>
       </c>
@@ -42054,7 +42053,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -42069,7 +42068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>149</v>
       </c>
@@ -42084,7 +42083,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -42099,7 +42098,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>61</v>
       </c>
@@ -42114,7 +42113,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>62</v>
       </c>
@@ -42129,7 +42128,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>63</v>
       </c>
@@ -42144,7 +42143,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>245</v>
       </c>
@@ -42159,7 +42158,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>64</v>
       </c>
@@ -42174,7 +42173,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>231</v>
       </c>
@@ -42189,7 +42188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>276</v>
       </c>
@@ -42204,7 +42203,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -42219,7 +42218,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>283</v>
       </c>
@@ -42234,7 +42233,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -42249,7 +42248,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -42264,7 +42263,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>133</v>
       </c>
@@ -42279,7 +42278,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>188</v>
       </c>
@@ -42294,7 +42293,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>646</v>
       </c>
@@ -42309,7 +42308,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>68</v>
       </c>
@@ -42324,7 +42323,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>71</v>
       </c>
@@ -42339,7 +42338,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>157</v>
       </c>
@@ -42354,7 +42353,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>647</v>
       </c>
@@ -42369,7 +42368,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>72</v>
       </c>
@@ -42384,7 +42383,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>263</v>
       </c>
@@ -42399,7 +42398,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>196</v>
       </c>
@@ -42414,7 +42413,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>74</v>
       </c>
@@ -42429,7 +42428,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>75</v>
       </c>
@@ -42444,7 +42443,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>76</v>
       </c>
@@ -42459,7 +42458,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -42474,7 +42473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>270</v>
       </c>
@@ -42489,7 +42488,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>128</v>
       </c>
@@ -42504,7 +42503,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -42519,7 +42518,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>79</v>
       </c>
@@ -42534,7 +42533,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>648</v>
       </c>
@@ -42549,7 +42548,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>244</v>
       </c>
@@ -42564,7 +42563,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>291</v>
       </c>
@@ -42579,7 +42578,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>136</v>
       </c>
@@ -42594,7 +42593,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>238</v>
       </c>
@@ -42609,7 +42608,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -42624,7 +42623,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>82</v>
       </c>
@@ -42639,7 +42638,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>240</v>
       </c>
@@ -42654,7 +42653,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>235</v>
       </c>
@@ -42669,7 +42668,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>649</v>
       </c>
@@ -42684,7 +42683,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>85</v>
       </c>
@@ -42699,7 +42698,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
@@ -42714,7 +42713,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>86</v>
       </c>
@@ -42729,7 +42728,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>256</v>
       </c>
@@ -42744,7 +42743,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>87</v>
       </c>
@@ -42759,7 +42758,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>150</v>
       </c>
@@ -42774,7 +42773,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>140</v>
       </c>
@@ -42789,7 +42788,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>93</v>
       </c>
@@ -42804,7 +42803,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>171</v>
       </c>
@@ -42819,7 +42818,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>650</v>
       </c>
@@ -42834,7 +42833,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -42849,7 +42848,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>94</v>
       </c>
@@ -42864,7 +42863,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>142</v>
       </c>
@@ -42879,7 +42878,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>95</v>
       </c>
@@ -42894,7 +42893,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>204</v>
       </c>
@@ -42909,7 +42908,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>96</v>
       </c>
@@ -42924,7 +42923,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>651</v>
       </c>
@@ -42939,7 +42938,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>134</v>
       </c>
@@ -42954,7 +42953,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>98</v>
       </c>
@@ -42969,7 +42968,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>103</v>
       </c>
@@ -42984,7 +42983,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -42999,7 +42998,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>274</v>
       </c>
@@ -43014,7 +43013,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>652</v>
       </c>
@@ -43029,7 +43028,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>266</v>
       </c>
@@ -43044,7 +43043,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>653</v>
       </c>
@@ -43059,7 +43058,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>137</v>
       </c>
@@ -43074,7 +43073,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>159</v>
       </c>
@@ -43089,7 +43088,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>172</v>
       </c>
@@ -43104,7 +43103,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>182</v>
       </c>
@@ -43119,7 +43118,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -43134,7 +43133,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -43149,7 +43148,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>107</v>
       </c>
@@ -43164,7 +43163,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>654</v>
       </c>
@@ -43179,7 +43178,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>130</v>
       </c>
@@ -43194,7 +43193,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>144</v>
       </c>
@@ -43209,7 +43208,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>108</v>
       </c>
@@ -43224,7 +43223,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>109</v>
       </c>
@@ -43239,7 +43238,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>143</v>
       </c>
@@ -43254,7 +43253,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>110</v>
       </c>
@@ -43269,7 +43268,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>111</v>
       </c>
@@ -43284,7 +43283,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>254</v>
       </c>
@@ -43299,7 +43298,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>655</v>
       </c>
@@ -43314,7 +43313,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>656</v>
       </c>
@@ -43329,7 +43328,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>113</v>
       </c>
@@ -43344,7 +43343,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>197</v>
       </c>
@@ -43359,7 +43358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>155</v>
       </c>
@@ -43374,7 +43373,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>255</v>
       </c>
@@ -43389,7 +43388,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>657</v>
       </c>
@@ -43404,7 +43403,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>658</v>
       </c>
@@ -43419,7 +43418,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>659</v>
       </c>
@@ -43434,7 +43433,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>178</v>
       </c>
@@ -43449,7 +43448,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>186</v>
       </c>
@@ -43464,7 +43463,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>119</v>
       </c>
@@ -43479,7 +43478,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>117</v>
       </c>
@@ -43494,7 +43493,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>195</v>
       </c>
@@ -43509,7 +43508,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>152</v>
       </c>
@@ -43524,7 +43523,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>660</v>
       </c>
@@ -43539,7 +43538,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>120</v>
       </c>
@@ -43554,7 +43553,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>121</v>
       </c>
@@ -43569,7 +43568,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>163</v>
       </c>
@@ -43584,7 +43583,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>207</v>
       </c>
@@ -43599,7 +43598,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>124</v>
       </c>
@@ -43614,7 +43613,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>661</v>
       </c>
@@ -43629,7 +43628,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>126</v>
       </c>
@@ -43644,7 +43643,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>279</v>
       </c>
@@ -43659,7 +43658,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>187</v>
       </c>
@@ -43674,7 +43673,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>131</v>
       </c>
@@ -43689,7 +43688,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>132</v>
       </c>
@@ -43704,7 +43703,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>135</v>
       </c>
@@ -43719,7 +43718,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>138</v>
       </c>
@@ -43734,7 +43733,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>662</v>
       </c>
@@ -43749,7 +43748,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>141</v>
       </c>
@@ -43764,7 +43763,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>663</v>
       </c>
@@ -43779,7 +43778,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>206</v>
       </c>
@@ -43794,7 +43793,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>664</v>
       </c>
@@ -43809,7 +43808,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>239</v>
       </c>
@@ -43824,7 +43823,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>265</v>
       </c>
@@ -43839,7 +43838,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>180</v>
       </c>
@@ -43854,7 +43853,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
@@ -43869,7 +43868,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>665</v>
       </c>
@@ -43884,7 +43883,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>148</v>
       </c>
@@ -43899,7 +43898,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>151</v>
       </c>
@@ -43914,7 +43913,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -43929,7 +43928,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>154</v>
       </c>
@@ -43944,7 +43943,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>156</v>
       </c>
@@ -43959,7 +43958,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -43974,7 +43973,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>225</v>
       </c>
@@ -43989,7 +43988,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>161</v>
       </c>
@@ -44004,7 +44003,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>292</v>
       </c>
@@ -44019,7 +44018,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>666</v>
       </c>
@@ -44034,7 +44033,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>185</v>
       </c>
@@ -44049,7 +44048,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>213</v>
       </c>
@@ -44064,7 +44063,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>169</v>
       </c>
@@ -44079,7 +44078,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>190</v>
       </c>
@@ -44094,7 +44093,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>166</v>
       </c>
@@ -44109,7 +44108,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>167</v>
       </c>
@@ -44124,7 +44123,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>173</v>
       </c>
@@ -44139,7 +44138,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>227</v>
       </c>
@@ -44154,7 +44153,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>261</v>
       </c>
@@ -44169,7 +44168,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>217</v>
       </c>
@@ -44184,7 +44183,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>285</v>
       </c>
@@ -44199,7 +44198,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>218</v>
       </c>
@@ -44214,7 +44213,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>228</v>
       </c>
@@ -44229,7 +44228,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>175</v>
       </c>
@@ -44244,7 +44243,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>176</v>
       </c>
@@ -44259,7 +44258,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>667</v>
       </c>
@@ -44274,7 +44273,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>262</v>
       </c>
@@ -44289,7 +44288,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>281</v>
       </c>
@@ -44304,7 +44303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>179</v>
       </c>
@@ -44319,7 +44318,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -44334,7 +44333,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>273</v>
       </c>
@@ -44349,7 +44348,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>181</v>
       </c>
@@ -44364,7 +44363,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>668</v>
       </c>
@@ -44379,7 +44378,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>183</v>
       </c>
@@ -44394,7 +44393,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>669</v>
       </c>
@@ -44409,7 +44408,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>670</v>
       </c>
@@ -44424,7 +44423,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>671</v>
       </c>
@@ -44439,7 +44438,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>193</v>
       </c>
@@ -44454,7 +44453,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>672</v>
       </c>
@@ -44469,7 +44468,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>673</v>
       </c>
@@ -44484,7 +44483,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>222</v>
       </c>
@@ -44499,7 +44498,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>674</v>
       </c>
@@ -44514,7 +44513,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>675</v>
       </c>
@@ -44529,7 +44528,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>676</v>
       </c>
@@ -44544,7 +44543,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>237</v>
       </c>
@@ -44559,7 +44558,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>677</v>
       </c>
@@ -44574,7 +44573,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>275</v>
       </c>
@@ -44589,7 +44588,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>678</v>
       </c>
@@ -44604,7 +44603,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>679</v>
       </c>
@@ -44619,7 +44618,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>680</v>
       </c>
@@ -44634,7 +44633,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>247</v>
       </c>
@@ -44649,7 +44648,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>198</v>
       </c>
@@ -44664,7 +44663,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>200</v>
       </c>
@@ -44679,7 +44678,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>201</v>
       </c>
@@ -44694,7 +44693,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>224</v>
       </c>
@@ -44709,7 +44708,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>681</v>
       </c>
@@ -44724,7 +44723,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>682</v>
       </c>
@@ -44739,7 +44738,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>683</v>
       </c>
@@ -44754,7 +44753,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>229</v>
       </c>
@@ -44769,7 +44768,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>219</v>
       </c>
@@ -44784,7 +44783,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>684</v>
       </c>
@@ -44799,7 +44798,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>685</v>
       </c>
@@ -44814,7 +44813,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>205</v>
       </c>
@@ -44829,7 +44828,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>290</v>
       </c>
@@ -44844,7 +44843,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>277</v>
       </c>
@@ -44859,7 +44858,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>272</v>
       </c>
@@ -44874,7 +44873,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>686</v>
       </c>
@@ -44889,7 +44888,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>258</v>
       </c>
@@ -44904,7 +44903,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>687</v>
       </c>
@@ -44919,7 +44918,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>688</v>
       </c>
@@ -44934,7 +44933,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>689</v>
       </c>
@@ -44949,7 +44948,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>271</v>
       </c>
@@ -44964,7 +44963,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>690</v>
       </c>
@@ -44979,7 +44978,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>212</v>
       </c>
@@ -44994,7 +44993,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>691</v>
       </c>
@@ -45009,7 +45008,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>264</v>
       </c>
@@ -45024,7 +45023,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>215</v>
       </c>
@@ -45039,7 +45038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>692</v>
       </c>
@@ -45054,7 +45053,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>693</v>
       </c>
@@ -45069,7 +45068,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>236</v>
       </c>
@@ -45084,7 +45083,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>221</v>
       </c>
@@ -45099,7 +45098,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>248</v>
       </c>
@@ -45114,7 +45113,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>694</v>
       </c>
@@ -45129,7 +45128,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>260</v>
       </c>
@@ -45144,7 +45143,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>226</v>
       </c>
@@ -45159,7 +45158,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>695</v>
       </c>
@@ -45174,7 +45173,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>269</v>
       </c>
@@ -45189,7 +45188,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>696</v>
       </c>
@@ -45204,7 +45203,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>697</v>
       </c>
@@ -45219,7 +45218,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>698</v>
       </c>
@@ -45234,7 +45233,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>699</v>
       </c>
@@ -45249,7 +45248,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>230</v>
       </c>
@@ -45264,7 +45263,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>700</v>
       </c>
@@ -45279,7 +45278,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>701</v>
       </c>
@@ -45294,7 +45293,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>702</v>
       </c>
@@ -45309,7 +45308,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>703</v>
       </c>
@@ -45324,7 +45323,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>704</v>
       </c>
@@ -45339,7 +45338,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>241</v>
       </c>
@@ -45354,7 +45353,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>249</v>
       </c>
@@ -45369,7 +45368,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>242</v>
       </c>
@@ -45384,7 +45383,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>705</v>
       </c>
@@ -45399,7 +45398,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>250</v>
       </c>
@@ -45414,7 +45413,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>251</v>
       </c>
@@ -45429,7 +45428,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>280</v>
       </c>
@@ -45444,7 +45443,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>706</v>
       </c>
@@ -45459,7 +45458,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>286</v>
       </c>
@@ -45474,7 +45473,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -45489,7 +45488,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>708</v>
       </c>
@@ -45504,7 +45503,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>284</v>
       </c>
@@ -45519,7 +45518,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>709</v>
       </c>
@@ -45534,7 +45533,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>710</v>
       </c>
@@ -45549,7 +45548,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>267</v>
       </c>
@@ -45564,7 +45563,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>268</v>
       </c>
@@ -45579,7 +45578,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>711</v>
       </c>
@@ -45594,7 +45593,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>712</v>
       </c>
@@ -45609,7 +45608,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>713</v>
       </c>
@@ -45624,7 +45623,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>714</v>
       </c>
@@ -45639,7 +45638,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>715</v>
       </c>
@@ -45654,7 +45653,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>716</v>
       </c>
@@ -45669,7 +45668,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>717</v>
       </c>
@@ -45684,7 +45683,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>718</v>
       </c>
@@ -45699,7 +45698,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>719</v>
       </c>
@@ -45714,7 +45713,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>720</v>
       </c>
@@ -45729,7 +45728,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>721</v>
       </c>
@@ -45744,7 +45743,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>722</v>
       </c>
@@ -45759,7 +45758,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>723</v>
       </c>
@@ -45774,7 +45773,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>724</v>
       </c>
@@ -45789,7 +45788,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>725</v>
       </c>
@@ -45804,7 +45803,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>726</v>
       </c>
@@ -45819,7 +45818,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>727</v>
       </c>
@@ -45849,7 +45848,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>729</v>
       </c>
@@ -45864,7 +45863,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>730</v>
       </c>
@@ -45879,7 +45878,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>731</v>
       </c>
@@ -45894,7 +45893,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>732</v>
       </c>
@@ -45909,7 +45908,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>733</v>
       </c>
@@ -45924,7 +45923,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>734</v>
       </c>
@@ -45939,7 +45938,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>735</v>
       </c>
@@ -45954,7 +45953,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>736</v>
       </c>
@@ -45969,7 +45968,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>737</v>
       </c>
@@ -45984,7 +45983,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>738</v>
       </c>
@@ -45999,7 +45998,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>739</v>
       </c>
@@ -46014,7 +46013,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>740</v>
       </c>
@@ -46029,7 +46028,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>741</v>
       </c>
@@ -46044,7 +46043,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>742</v>
       </c>
@@ -46059,7 +46058,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>743</v>
       </c>
@@ -46074,7 +46073,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>744</v>
       </c>
@@ -46089,7 +46088,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>745</v>
       </c>
@@ -46104,7 +46103,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>746</v>
       </c>
@@ -46119,7 +46118,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>747</v>
       </c>
@@ -46134,7 +46133,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>748</v>
       </c>
@@ -46149,7 +46148,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>749</v>
       </c>
@@ -46164,7 +46163,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>750</v>
       </c>
@@ -46179,7 +46178,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>751</v>
       </c>
@@ -46194,7 +46193,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>752</v>
       </c>
@@ -46209,7 +46208,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>753</v>
       </c>
@@ -46224,7 +46223,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>754</v>
       </c>
@@ -46239,7 +46238,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>755</v>
       </c>
@@ -46254,7 +46253,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>756</v>
       </c>
@@ -46269,7 +46268,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>757</v>
       </c>
@@ -46284,7 +46283,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>758</v>
       </c>
@@ -46299,7 +46298,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>759</v>
       </c>
@@ -46314,7 +46313,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>760</v>
       </c>
@@ -46329,7 +46328,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>761</v>
       </c>
@@ -46344,7 +46343,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>762</v>
       </c>
@@ -46359,7 +46358,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>763</v>
       </c>
@@ -46374,7 +46373,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>764</v>
       </c>
@@ -46389,7 +46388,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>765</v>
       </c>
@@ -46404,7 +46403,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>766</v>
       </c>
@@ -46419,7 +46418,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>767</v>
       </c>
@@ -46434,7 +46433,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>768</v>
       </c>
@@ -46449,7 +46448,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>769</v>
       </c>
@@ -46464,7 +46463,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>770</v>
       </c>
@@ -46479,7 +46478,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>771</v>
       </c>
@@ -46494,7 +46493,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>772</v>
       </c>
@@ -46509,7 +46508,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>773</v>
       </c>
@@ -46524,7 +46523,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>774</v>
       </c>
@@ -46539,7 +46538,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>775</v>
       </c>
@@ -46554,7 +46553,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>776</v>
       </c>
@@ -46569,7 +46568,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>777</v>
       </c>
@@ -46584,7 +46583,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>778</v>
       </c>
@@ -46599,7 +46598,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>779</v>
       </c>
@@ -46614,7 +46613,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>780</v>
       </c>
@@ -46629,7 +46628,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>781</v>
       </c>
@@ -46645,13 +46644,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D433">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ISEA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D433"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -46660,8 +46653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:B49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Institutions_Final.xlsx
+++ b/data/Institutions_Final.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="916">
   <si>
     <t>Field</t>
   </si>
@@ -2777,6 +2777,9 @@
   </si>
   <si>
     <t>Zemědělské vědy</t>
+  </si>
+  <si>
+    <t>ČHÚ-Český hydrometeorologický ústav</t>
   </si>
 </sst>
 </file>
@@ -3420,7 +3423,7 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>3.3369214208826693E-2</c:v>
                       </c:pt>
@@ -3489,6 +3492,93 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>0.1128526645768025</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.1764705882352941</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.31398963730569951</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.34691195795006569</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9.8265895953757232E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.1186161449752883</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.1702127659574468</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.76247030878859856</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.49696969696969701</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.7619047619047623E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.71875</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.23529411764705879</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>9.7435897435897437E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.11234177215189869</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>7.2916666666666671E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>3.4045008655510682E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.14803625377643501</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.14375655823714589</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.36585365853658541</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.418262150220913E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>9.5238095238095233E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.40458015267175568</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>9.3360995850622408E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.61224489795918369</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.28865979381443302</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>5.0932568149210912E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.6640625</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3504,7 +3594,7 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>1.076426264800861E-2</c:v>
                       </c:pt>
@@ -3573,6 +3663,93 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>6.269592476489028E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>7.2538860103626944E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.8901734104046239E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.1276595744680851E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.10213776722090261</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.0606060606060606E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>4.7619047619047623E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>3.6764705882352941E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>5.1282051282051282E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.3449367088607601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>5.1933064050779E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2.4169184290030211E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.049317943336831E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>3.8167938931297711E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2.6970954356846471E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2.0618556701030931E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>7.173601147776184E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3588,7 +3765,7 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
+                      <c:ptCount val="52"/>
                       <c:pt idx="0">
                         <c:v>929</c:v>
                       </c:pt>
@@ -3657,6 +3834,93 @@
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>319</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>965</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>761</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>607</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>421</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>330</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>272</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>390</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1264</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1733</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>662</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>953</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>679</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>482</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1394</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>128</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3697,6 +3961,112 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>0.2098765432098765</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.63157894736842102</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4934497816593878E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.42979942693409739</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1020408163265306</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.62251655629139069</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.51356907894736847</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.38235294117647062</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.39534883720930231</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.1179635761589404</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.0422960725075532E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.44050632911392412</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.82178217821782173</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.8571428571428571</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.4064327485380117</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.8875305623471883</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.58895705521472397</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.54285714285714282</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.26213592233009708</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.66666666666666663</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.41254752851711018</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.41379310344827591</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.50877192982456143</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>3.6363636363636362E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>8.0000000000000002E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.13157894736842099</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>8.6956521739130432E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.23529411764705879</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.27272727272727271</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.1333333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:xVal>
                 <c:yVal>
@@ -3708,6 +4078,112 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>8.23045267489712E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.736842105263158E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.7306590257879646E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0816326530612242E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.3112582781456949E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.1118421052631577E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.8235294117647065E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.1059602649006619E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>7.0493454179254783E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7.848101265822785E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.9306930693069313E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.900584795321637E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>7.3349633251833741E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.2944785276073622E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.428571428571429E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.6315789473684209E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>5.8823529411764712E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>7.6923076923076927E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:bubbleSize>
@@ -3719,6 +4195,112 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="34"/>
+                      <c:pt idx="0">
+                        <c:v>243</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>229</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>349</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>302</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2432</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2416</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>993</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1185</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>684</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>409</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>163</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>526</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>285</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>13</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:bubbleSize>
                 <c:bubble3D val="0"/>
@@ -3759,9 +4341,132 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="1"/>
+                      <c:ptCount val="42"/>
                       <c:pt idx="0">
+                        <c:v>0.15384615384615391</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.4375</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.83333333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.2167832167832168</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.46666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.5454545454545463E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.42105263157894729</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.46666666666666667</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.26829268292682928</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.15384615384615391</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.22142857142857139</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.1384615384615385</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.91304347826086951</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.1176470588235294</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.26315789473684209</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.49514563106796122</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.51037344398340245</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.50137236962488563</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.47633872976338731</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.3988657844990548</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.67307692307692313</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.58769230769230774</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.51468531468531464</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.33244680851063829</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.40625</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.39217652958876631</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.37073170731707322</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.51602564102564108</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.43661971830985907</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.47653429602888092</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.31924882629107981</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.32451923076923078</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.44245524296675193</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.26860841423948217</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.59493670886075944</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.44757241942064457</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.55263157894736847</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.3902439024390244</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.70588235294117652</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.16666666666666671</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3777,8 +4482,131 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="1"/>
+                      <c:ptCount val="42"/>
                       <c:pt idx="0">
+                        <c:v>2.564102564102564E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.10526315789473679</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.2453300124532999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>9.4517958412098299E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.538461538461538E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>7.9787234042553185E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.240079365079365E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.006018054162487E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>7.3170731707317077E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>4.6948356807511738E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2.5575447570332479E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>3.2362459546925568E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.223990208078335E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -3795,9 +4623,132 @@
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1"/>
+                      <c:ptCount val="42"/>
                       <c:pt idx="0">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>429</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>241</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1093</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1606</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>529</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>572</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>650</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>715</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1128</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>997</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>410</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>312</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>277</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>213</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>416</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>391</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>309</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2451</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>18</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3838,6 +4789,268 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>0.72413793103448276</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.63636363636363635</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.6097560975609756</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.1176470588235294</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.77486910994764402</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.67924528301886788</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6097560975609756</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.42857142857142849</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.169811320754717</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.5625</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.21758241758241759</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.1206896551724138</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.53846153846153844</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.24516129032258061</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.55882352941176472</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.7313432835820892E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.72463768115942029</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.63314711359404097</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.31506849315068491</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.15403422982885079</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.875</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.12631578947368419</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.65254237288135597</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.72972972972972971</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.4112149532710276E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.1160714285714286</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.35542168674698787</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.2250922509225092</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.17692307692307691</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.62264150943396224</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.56666666666666665</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.17289719626168221</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.6097560975609756</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.76543209876543206</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.26027397260273971</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.73913043478260865</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.5357142857142857</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>7.6246334310850442E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.40565577766942962</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.37692307692307692</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.37084548104956272</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>6.8181818181818177E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>9.8765432098765427E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.20472440944881889</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.76923076923076927</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.46242774566473988</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.35655737704918028</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.5449438202247191</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.13583441138421731</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.6198347107438017</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.72727272727272729</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.81818181818181823</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.46173800259403369</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.40054995417048578</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.537489469250211E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.4854368932038835</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.47368421052631582</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.1036036036036036</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.38121546961325969</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.46153846153846162</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.47096774193548391</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.58333333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.54391891891891897</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.71610169491525422</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.48475452196382429</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.46808510638297868</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>5.520452278017958E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.22916666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>6.2670299727520432E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.59558823529411764</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.125</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.6216216216216216</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.63</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.44173441734417351</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.375</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.45859872611464969</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.32084309133489458</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.10789473684210529</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.39001848428835489</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.2055137844611529</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:xVal>
                 <c:yVal>
@@ -3849,6 +5062,268 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.235602094240838E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.4390243902439029E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5384615384615391E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>8.8235294117647065E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.8621973929236499E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.7114914425427868E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.0526315789473681E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.16949152542372881</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.7027027027027029E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.8691588785046731E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>5.4216867469879519E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>3.6900369003690037E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.5384615384615391E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>6.4000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>6.5420560747663545E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>4.878048780487805E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.7397260273972601E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>7.1428571428571425E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>3.2258064516129031E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.1940516821062901E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.0576923076923079E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>4.0816326530612249E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.15606936416185E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>3.9325842696629212E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2.5873221216041399E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>6.1983471074380167E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>4.5454545454545463E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.945525291828794E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>3.666361136571952E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2.527379949452401E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>9.7087378640776691E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>8.0080080080080079E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2.3941068139963169E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2.5806451612903229E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>3.378378378378379E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1.550387596899225E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1.063829787234043E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2.9930162953109409E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>4.1666666666666657E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1.9073569482288829E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.25735294117647062</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.29539295392953929</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.109375</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.28025477707006369</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>4.6838407494145202E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>6.8421052631578952E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>2.5878003696857669E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>7.5187969924812026E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:bubbleSize>
@@ -3860,6 +5335,268 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="86"/>
+                      <c:pt idx="0">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>191</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>455</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>406</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>310</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>537</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>409</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>190</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>271</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>214</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>341</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>4102</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2080</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1715</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>173</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>488</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>773</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>484</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1542</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1091</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>4748</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>3996</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>543</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>228</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>296</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>236</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1935</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3007</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>1101</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>369</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>427</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>380</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>541</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>399</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:bubbleSize>
                 <c:bubble3D val="0"/>
@@ -3898,6 +5635,145 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="45"/>
+                      <c:pt idx="0">
+                        <c:v>0.35119047619047622</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.6666666666666666E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.31578947368421051</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6.8376068376068383E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.45634920634920628</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.53246753246753242</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.2098765432098765</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.1463963963963964</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.48684210526315791</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.33707865168539319</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.30043859649122812</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>7.0175438596491224E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.1254901960784314</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.1142857142857143</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.1687370600414079</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>7.2261072261072257E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>7.2727272727272724E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.2350299401197605</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.32183908045977011</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.15789473684210531</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.752</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.48989898989898989</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.26829268292682928</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.62376237623762376</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.52447552447552448</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.52941176470588236</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.42553191489361702</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.30136986301369861</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.33333333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.12654320987654319</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>9.8318240620957315E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>5.3030303030303032E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.58333333333333337</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.22246696035242289</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.17084639498432599</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.582159624413146E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.3321299638989168E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.48979591836734693</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.14516129032258071</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.65100671140939592</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.36363636363636359</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.28205128205128199</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.91666666666666663</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>6.4814814814814811E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:xVal>
                 <c:yVal>
@@ -3909,6 +5785,145 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="45"/>
+                      <c:pt idx="0">
+                        <c:v>2.3809523809523812E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.0526315789473681E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.4188034188034191E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.2142857142857143</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.298701298701299E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.645502645502645E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.8018018018018021E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.8947368421052627E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.9325842696629212E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.096491228070175E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.754385964912281E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.7450980392156859E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.6666666666666666E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>8.2815734989648039E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4.662004662004662E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.8181818181818181E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>4.4910179640718561E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.7241379310344831E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>5.6000000000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>6.5656565656565663E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.1683168316831683</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>3.4965034965034968E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.29411764705882348</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.1063829787234043</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>8.2191780821917804E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.754385964912281E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.234567901234568E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>3.8809831824062092E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>3.03030303030303E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>9.0909090909090912E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>5.5066079295154183E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2.3510971786833861E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.1619718309859155</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.166064981949458E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.18367346938775511</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>8.0645161290322578E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.282051282051282E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>4.3209876543209867E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:bubbleSize>
@@ -3920,6 +5935,145 @@
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="45"/>
+                      <c:pt idx="0">
+                        <c:v>336</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>567</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>444</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>456</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>255</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>966</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>858</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>668</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>198</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>324</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>773</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>454</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>638</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>426</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>554</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>324</c:v>
+                      </c:pt>
+                    </c:numCache>
                   </c:numRef>
                 </c:bubbleSize>
                 <c:bubble3D val="0"/>
@@ -6147,7 +8301,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6414,7 +8568,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -6681,7 +8835,7 @@
                   <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110</c:v>
@@ -8016,7 +10170,7 @@
               <c:f>JEDNOTKA!$L$32:$L$83</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>3.3369214208826693E-2</c:v>
                 </c:pt>
@@ -8085,6 +10239,93 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.1128526645768025</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.31398963730569951</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34691195795006569</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8265895953757232E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1186161449752883</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1702127659574468</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76247030878859856</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49696969696969701</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7619047619047623E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.71875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23529411764705879</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7435897435897437E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11234177215189869</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4045008655510682E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14803625377643501</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14375655823714589</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36585365853658541</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.418262150220913E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5238095238095233E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40458015267175568</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.3360995850622408E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61224489795918369</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.28865979381443302</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0932568149210912E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8094,7 +10335,7 @@
               <c:f>JEDNOTKA!$M$32:$M$83</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.076426264800861E-2</c:v>
                 </c:pt>
@@ -8163,6 +10404,93 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.269592476489028E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.2538860103626944E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8901734104046239E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1276595744680851E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10213776722090261</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0606060606060606E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.7619047619047623E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6764705882352941E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.1282051282051282E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.3449367088607601E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1933064050779E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4169184290030211E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.049317943336831E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.8167938931297711E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.6970954356846471E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.0618556701030931E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.173601147776184E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8189,11 +10517,223 @@
           <c:xVal>
             <c:numRef>
               <c:f>JEDNOTKA!$L$84:$L$117</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.2098765432098765</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4934497816593878E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42979942693409739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1020408163265306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62251655629139069</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51356907894736847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38235294117647062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39534883720930231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1179635761589404</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0422960725075532E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44050632911392412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82178217821782173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4064327485380117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8875305623471883</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.58895705521472397</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54285714285714282</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26213592233009708</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41254752851711018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41379310344827591</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.50877192982456143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6363636363636362E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13157894736842099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23529411764705879</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>JEDNOTKA!$M$84:$M$117</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>8.23045267489712E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.736842105263158E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7306590257879646E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3112582781456949E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1118421052631577E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1059602649006619E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0493454179254783E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.848101265822785E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9306930693069313E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.900584795321637E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.3349633251833741E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2944785276073622E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.428571428571429E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6315789473684209E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8823529411764712E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -8220,9 +10760,132 @@
               <c:f>JEDNOTKA!$L$118:$L$159</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
+                  <c:v>0.15384615384615391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2167832167832168</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545463E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42105263157894729</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26829268292682928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15384615384615391</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.26315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.49514563106796122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.51037344398340245</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50137236962488563</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47633872976338731</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3988657844990548</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.67307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58769230769230774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.51468531468531464</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33244680851063829</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.40625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39217652958876631</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.37073170731707322</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.51602564102564108</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43661971830985907</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.47653429602888092</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31924882629107981</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32451923076923078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44245524296675193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.26860841423948217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.59493670886075944</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44757241942064457</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.55263157894736847</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.3902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.70588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16666666666666671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8232,8 +10895,131 @@
               <c:f>JEDNOTKA!$M$118:$M$159</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
+                  <c:v>2.564102564102564E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10526315789473679</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2453300124532999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4517958412098299E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.538461538461538E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9787234042553185E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.240079365079365E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.006018054162487E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.3170731707317077E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.6948356807511738E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5575447570332479E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2362459546925568E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.223990208078335E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8261,11 +11047,535 @@
           <c:xVal>
             <c:numRef>
               <c:f>JEDNOTKA!$L$160:$L$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0.72413793103448276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77486910994764402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67924528301886788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42857142857142849</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.169811320754717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21758241758241759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1206896551724138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.24516129032258061</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.55882352941176472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7313432835820892E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72463768115942029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63314711359404097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.31506849315068491</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15403422982885079</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12631578947368419</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65254237288135597</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72972972972972971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4112149532710276E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1160714285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35542168674698787</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2250922509225092</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17692307692307691</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62264150943396224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17289719626168221</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76543209876543206</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.26027397260273971</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.73913043478260865</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.6246334310850442E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40565577766942962</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37084548104956272</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.8181818181818177E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.8765432098765427E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.20472440944881889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76923076923076927</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46242774566473988</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.35655737704918028</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5449438202247191</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13583441138421731</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.6198347107438017</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46173800259403369</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.40054995417048578</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.537489469250211E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.4854368932038835</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.47368421052631582</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.1036036036036036</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38121546961325969</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.46153846153846162</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.47096774193548391</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54391891891891897</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.71610169491525422</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48475452196382429</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.46808510638297868</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.520452278017958E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.22916666666666671</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2670299727520432E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.59558823529411764</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.6216216216216216</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.44173441734417351</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.45859872611464969</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.32084309133489458</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.10789473684210529</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39001848428835489</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.2055137844611529</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>JEDNOTKA!$M$160:$M$245</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="86"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.235602094240838E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4390243902439029E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5384615384615391E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8621973929236499E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7114914425427868E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0526315789473681E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16949152542372881</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7027027027027029E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.8691588785046731E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4216867469879519E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6900369003690037E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5384615384615391E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5420560747663545E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.878048780487805E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.7397260273972601E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.2258064516129031E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1940516821062901E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0576923076923079E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0816326530612249E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.15606936416185E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.9325842696629212E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.5873221216041399E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1983471074380167E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5454545454545463E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.945525291828794E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.666361136571952E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.527379949452401E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.7087378640776691E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.0080080080080079E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3941068139963169E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5806451612903229E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.378378378378379E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.550387596899225E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.063829787234043E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.9930162953109409E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.1666666666666657E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9073569482288829E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25735294117647062</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29539295392953929</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.109375</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.28025477707006369</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.6838407494145202E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.8421052631578952E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.5878003696857669E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7.5187969924812026E-3</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -8290,11 +11600,289 @@
           <c:xVal>
             <c:numRef>
               <c:f>JEDNOTKA!$L$246:$L$290</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.35119047619047622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31578947368421051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8376068376068383E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45634920634920628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53246753246753242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2098765432098765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1463963963963964</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48684210526315791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33707865168539319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30043859649122812</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0175438596491224E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1254901960784314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1687370600414079</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.2261072261072257E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2727272727272724E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2350299401197605</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32183908045977011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.15789473684210531</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48989898989898989</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26829268292682928</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.62376237623762376</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.52447552447552448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.42553191489361702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30136986301369861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.12654320987654319</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8318240620957315E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3030303030303032E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.22246696035242289</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17084639498432599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.582159624413146E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3321299638989168E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.48979591836734693</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14516129032258071</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65100671140939592</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36363636363636359</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28205128205128199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.4814814814814811E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>JEDNOTKA!$M$246:$M$290</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>2.3809523809523812E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0526315789473681E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4188034188034191E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.298701298701299E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.645502645502645E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8018018018018021E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8947368421052627E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9325842696629212E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.096491228070175E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.754385964912281E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7450980392156859E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2815734989648039E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.662004662004662E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8181818181818181E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.4910179640718561E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7241379310344831E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5656565656565663E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1683168316831683</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4965034965034968E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29411764705882348</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1063829787234043</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.2191780821917804E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.754385964912281E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.234567901234568E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8809831824062092E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.03030303030303E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.5066079295154183E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3510971786833861E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.1619718309859155</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.166064981949458E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.18367346938775511</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0645161290322578E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.282051282051282E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.3209876543209867E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -11100,7 +14688,7 @@
                   <c:v>0.2167832167832168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5238095238095233E-2</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6363636363636362E-2</c:v>
@@ -11367,7 +14955,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -11634,7 +15222,7 @@
                   <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110</c:v>
@@ -22742,14 +26330,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25461,7 +29048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -25511,7 +29098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -25561,7 +29148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -25611,7 +29198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -25661,7 +29248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -25711,7 +29298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -25761,7 +29348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -25811,7 +29398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -25861,7 +29448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -25911,7 +29498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -25961,7 +29548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -26011,7 +29598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -26061,7 +29648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -26111,7 +29698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -26161,7 +29748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -26211,7 +29798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -26261,7 +29848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -26311,7 +29898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -26361,7 +29948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -26411,7 +29998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -26461,7 +30048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -26469,7 +30056,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>218</v>
+        <v>915</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>621</v>
@@ -26511,7 +30098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -26561,7 +30148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -26611,7 +30198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -26661,7 +30248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -26711,7 +30298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -26761,7 +30348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -26811,7 +30398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -26861,7 +30448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -26911,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -26961,7 +30548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -27011,7 +30598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -27061,7 +30648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -27111,7 +30698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -27161,7 +30748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -27211,7 +30798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -27261,7 +30848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -27311,7 +30898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -27361,7 +30948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -27411,7 +30998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -27461,7 +31048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -27511,7 +31098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -27561,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -27611,7 +31198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -27661,7 +31248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -27711,7 +31298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -27761,7 +31348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -27811,7 +31398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -27861,7 +31448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -27911,7 +31498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -27961,7 +31548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -28011,7 +31598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -28061,7 +31648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -28111,7 +31698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -28161,7 +31748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -28211,7 +31798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -28261,7 +31848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -28311,7 +31898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -28361,7 +31948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -28411,7 +31998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -28461,7 +32048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -28511,7 +32098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -28561,7 +32148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -28611,7 +32198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -28661,7 +32248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -28711,7 +32298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -28761,7 +32348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -28811,7 +32398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -28861,7 +32448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -28911,7 +32498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -28961,7 +32548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -29061,7 +32648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -29111,7 +32698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -29161,7 +32748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -29211,7 +32798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -29261,7 +32848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -29311,7 +32898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -29361,7 +32948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -29411,7 +32998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -29461,7 +33048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -29511,7 +33098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -29561,7 +33148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -29611,7 +33198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -29661,7 +33248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -29711,7 +33298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -29761,7 +33348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -29811,7 +33398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -29861,7 +33448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -29911,7 +33498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -29961,7 +33548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -30011,7 +33598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -30061,7 +33648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -30111,7 +33698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -30161,7 +33748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -30211,7 +33798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -30261,7 +33848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -30311,7 +33898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -30361,7 +33948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -30411,7 +33998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -30461,7 +34048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -30511,7 +34098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -30561,7 +34148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -30611,7 +34198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -30661,7 +34248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -30711,7 +34298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -30761,7 +34348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -30811,7 +34398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -30861,7 +34448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -30911,7 +34498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -30961,7 +34548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -31011,7 +34598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -31061,7 +34648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -31111,7 +34698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -31161,7 +34748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -31211,7 +34798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -31261,7 +34848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -31311,7 +34898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -31361,7 +34948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -31411,7 +34998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -31461,7 +35048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -31511,7 +35098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -31561,7 +35148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -31611,7 +35198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -31661,7 +35248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -31711,7 +35298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -31761,7 +35348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -31811,7 +35398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -31861,7 +35448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -31911,7 +35498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -31961,7 +35548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -32011,7 +35598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -32061,7 +35648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -32111,7 +35698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -32161,7 +35748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -32211,7 +35798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -32261,7 +35848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -32311,7 +35898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -32361,7 +35948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -32411,7 +35998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -32461,7 +36048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -32511,7 +36098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -32561,7 +36148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -32611,7 +36198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -32661,7 +36248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -32711,7 +36298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -32761,7 +36348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -32811,7 +36398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -32861,7 +36448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -32911,7 +36498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -32961,7 +36548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -33011,7 +36598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -33061,7 +36648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -33111,7 +36698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -33161,7 +36748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -33211,7 +36798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -33261,7 +36848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -33311,7 +36898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -33361,7 +36948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -33411,7 +36998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -33461,7 +37048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -33511,7 +37098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -33561,7 +37148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -33611,7 +37198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -33661,7 +37248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -33711,7 +37298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -33761,7 +37348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -33811,7 +37398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -33861,7 +37448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -33911,7 +37498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -33961,7 +37548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -34011,7 +37598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -34061,7 +37648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -34111,7 +37698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -34161,7 +37748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -34211,7 +37798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -34261,7 +37848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -34311,7 +37898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -34361,7 +37948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -34411,7 +37998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -34461,7 +38048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -34511,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -34561,7 +38148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -34611,7 +38198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -34661,7 +38248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -34711,7 +38298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -34761,7 +38348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -34811,7 +38398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -34861,7 +38448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -34911,7 +38498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -34961,7 +38548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -35011,7 +38598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -35061,7 +38648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -35111,7 +38698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -35161,7 +38748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -35211,7 +38798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -35261,7 +38848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -35311,7 +38898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -35361,7 +38948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -35411,7 +38998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -35461,7 +39048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -35511,7 +39098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -35561,7 +39148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -35611,7 +39198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -35661,7 +39248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -35711,7 +39298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -35761,7 +39348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -35811,7 +39398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -35861,7 +39448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -35911,7 +39498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -35961,7 +39548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -36011,7 +39598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -36061,7 +39648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -36111,7 +39698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -36161,7 +39748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -36211,7 +39798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -36261,7 +39848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -36311,7 +39898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -36361,7 +39948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -36411,7 +39998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -36461,7 +40048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -36511,7 +40098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -36561,7 +40148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -36611,7 +40198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -36661,7 +40248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -36711,7 +40298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -36761,7 +40348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -36811,7 +40398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -36861,7 +40448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -36911,7 +40498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -36961,7 +40548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -37011,7 +40598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -37061,7 +40648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -37111,7 +40698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -37161,7 +40748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -37211,7 +40798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -37261,7 +40848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -37281,7 +40868,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -37301,7 +40888,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -37321,7 +40908,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -37341,7 +40928,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -37361,7 +40948,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -37381,7 +40968,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -37401,7 +40988,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -37421,7 +41008,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -37441,7 +41028,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -37461,7 +41048,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -37481,7 +41068,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -37501,7 +41088,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -37521,7 +41108,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -37541,7 +41128,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -37561,7 +41148,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -37581,7 +41168,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -37601,7 +41188,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -37621,7 +41208,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -37641,7 +41228,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -37661,7 +41248,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -37681,7 +41268,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -37701,7 +41288,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -37721,7 +41308,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -37741,7 +41328,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -37761,7 +41348,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -37781,7 +41368,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -37801,7 +41388,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -37821,7 +41408,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -37841,7 +41428,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -37861,7 +41448,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -37881,7 +41468,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -37901,7 +41488,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -37921,7 +41508,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -37941,7 +41528,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -37961,7 +41548,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -37981,7 +41568,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -38001,7 +41588,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -38021,7 +41608,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -38041,7 +41628,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -38061,7 +41648,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -38081,7 +41668,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -38101,7 +41688,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -38121,7 +41708,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -38141,7 +41728,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -38161,7 +41748,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -38181,7 +41768,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -38201,7 +41788,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -38221,7 +41808,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -38241,7 +41828,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -38261,7 +41848,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -38281,7 +41868,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -38301,7 +41888,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -38321,7 +41908,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -38341,7 +41928,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -38361,7 +41948,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -38381,7 +41968,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -38401,7 +41988,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -38421,7 +42008,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -38441,7 +42028,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -38461,7 +42048,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -38481,7 +42068,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -38501,7 +42088,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -38521,7 +42108,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -38541,7 +42128,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -38561,7 +42148,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -38581,7 +42168,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -38601,7 +42188,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -38621,7 +42208,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -38641,7 +42228,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -38661,7 +42248,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -38681,7 +42268,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -38701,7 +42288,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -38721,7 +42308,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -38741,7 +42328,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -38761,7 +42348,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -38781,7 +42368,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -38801,7 +42388,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -38821,7 +42408,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -38841,7 +42428,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -38861,7 +42448,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -38881,7 +42468,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -38901,7 +42488,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -38921,7 +42508,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -38941,7 +42528,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -38961,7 +42548,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -38981,7 +42568,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -39001,7 +42588,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -39021,7 +42608,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -39041,7 +42628,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -39061,7 +42648,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -39081,7 +42668,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -39101,7 +42688,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -39121,7 +42708,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -39141,7 +42728,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -39161,7 +42748,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -39181,7 +42768,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -39201,7 +42788,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -39221,7 +42808,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -39241,7 +42828,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -39261,7 +42848,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -39281,7 +42868,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -39301,7 +42888,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -39321,7 +42908,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -39341,7 +42928,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -39361,7 +42948,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -39381,7 +42968,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -39401,7 +42988,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -39421,7 +43008,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -39441,7 +43028,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -39461,7 +43048,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -39481,7 +43068,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -39501,7 +43088,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -39521,7 +43108,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -39541,7 +43128,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -39561,7 +43148,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -39581,7 +43168,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -39601,7 +43188,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -39621,7 +43208,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -39641,7 +43228,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -39661,7 +43248,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -39681,7 +43268,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -39701,7 +43288,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -39721,7 +43308,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -39741,7 +43328,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -39761,7 +43348,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -39781,7 +43368,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -39801,7 +43388,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -39821,7 +43408,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -39841,7 +43428,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -39861,7 +43448,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -39881,7 +43468,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -39901,7 +43488,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -39921,7 +43508,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -39941,7 +43528,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -39961,7 +43548,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -39981,7 +43568,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -40001,7 +43588,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -40021,7 +43608,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -40041,7 +43628,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -40061,7 +43648,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -40081,7 +43668,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -40101,7 +43688,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -40123,11 +43710,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O433">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Akademie věd"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:N290">
       <sortCondition ref="A1:A290"/>
     </sortState>
@@ -44204,7 +47786,7 @@
       </c>
       <c r="B271" t="b">
         <f>COUNTIFS(JEDNOTKA!$C$1:$C$290,AllInstitutions!A271)&gt;0</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="s">
         <v>905</v>
@@ -51366,25 +54948,25 @@
       <c r="A167" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,2,0)</f>
-        <v>ČHÚ</v>
-      </c>
-      <c r="C167" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,6,0)</f>
-        <v>Ostatní</v>
-      </c>
-      <c r="D167">
+        <v>#N/A</v>
+      </c>
+      <c r="D167" t="e">
         <f>VLOOKUP(C167,Types!$A$2:$B$6,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E167">
+        <v>#N/A</v>
+      </c>
+      <c r="E167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,7,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F167" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F167" s="2" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,10,0)</f>
-        <v>9.5238095238095233E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -58759,25 +62341,25 @@
       <c r="A167" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,2,0)</f>
-        <v>ČHÚ</v>
-      </c>
-      <c r="C167" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,6,0)</f>
-        <v>Ostatní</v>
-      </c>
-      <c r="D167">
+        <v>#N/A</v>
+      </c>
+      <c r="D167" t="e">
         <f>VLOOKUP(C167,Types!$A$2:$B$6,2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E167">
+        <v>#N/A</v>
+      </c>
+      <c r="E167" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,7,0)</f>
-        <v>21</v>
-      </c>
-      <c r="F167" s="2">
+        <v>#N/A</v>
+      </c>
+      <c r="F167" s="2" t="e">
         <f>VLOOKUP($A167,JEDNOTKA!$C$1:$M$290,11,0)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
